--- a/Docs/Lab03/Lab03_WBT_TCs_Form.xlsx
+++ b/Docs/Lab03/Lab03_WBT_TCs_Form.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25F02E59-4930-4841-9629-094614300430}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBFD45BD-A3C6-4A7C-9BF7-A7DD083C1A57}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Statement" sheetId="1" r:id="rId1"/>
@@ -14,24 +14,11 @@
     <sheet name="WBT-TCs" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="116">
   <si>
     <t>Informaţiile vor fi preluate din fişiere text.</t>
   </si>
@@ -151,9 +138,6 @@
   </si>
   <si>
     <t xml:space="preserve">Lab03. White-box Testing. Code Coverage </t>
-  </si>
-  <si>
-    <t>1, 2,4, 6, 7</t>
   </si>
   <si>
     <t>#TCs run</t>
@@ -246,28 +230,10 @@
     <t>F02_TC02</t>
   </si>
   <si>
-    <t>F02_Cond01 &gt; 100</t>
-  </si>
-  <si>
-    <t>F02_Cond02 &lt; 20</t>
-  </si>
-  <si>
-    <t>F02_Cond03 == i</t>
-  </si>
-  <si>
-    <t>F02_Condnn &lt; n</t>
-  </si>
-  <si>
     <t>F02_P01</t>
   </si>
   <si>
     <t>F02_P02</t>
-  </si>
-  <si>
-    <t>F02_Pnn</t>
-  </si>
-  <si>
-    <t>F01_TC02</t>
   </si>
   <si>
     <t>F02_P03</t>
@@ -488,32 +454,116 @@
     <t>Molnar Noemi-Eveline</t>
   </si>
   <si>
-    <t>1-&gt;2T-&gt;3-&gt;8</t>
-  </si>
-  <si>
-    <t>1-&gt;2F-&gt;4T-&gt;5T-&gt;6-&gt;4F-&gt;7-&gt;8</t>
-  </si>
-  <si>
-    <t>1-&gt;2F-&gt;4T-&gt;5F-&gt;4F-&gt;7-&gt;8</t>
-  </si>
-  <si>
-    <t>1-&gt;2F-&gt;4F-&gt;7-&gt;8</t>
-  </si>
-  <si>
     <t>F02_P04</t>
   </si>
   <si>
-    <t>3+1=4…</t>
-  </si>
-  <si>
-    <t>10-8+2=4</t>
+    <t>l</t>
+  </si>
+  <si>
+    <t>type</t>
+  </si>
+  <si>
+    <t>total</t>
+  </si>
+  <si>
+    <t>l==null</t>
+  </si>
+  <si>
+    <t>l.size()=0</t>
+  </si>
+  <si>
+    <t>l.it.hasNext()</t>
+  </si>
+  <si>
+    <t>p.getType().equals(type)</t>
+  </si>
+  <si>
+    <t>[Payment(1, Card, 100.0f)]</t>
+  </si>
+  <si>
+    <t>Card</t>
+  </si>
+  <si>
+    <t>100.0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1,2,4,6,7,8,6,9,10 </t>
+  </si>
+  <si>
+    <t>X</t>
+  </si>
+  <si>
+    <t>Cash</t>
+  </si>
+  <si>
+    <t>0.0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1,2,4,6,7,6,9,10 </t>
+  </si>
+  <si>
+    <t>F02_TC03</t>
+  </si>
+  <si>
+    <t>[]</t>
+  </si>
+  <si>
+    <t>1,2,4,5,10</t>
+  </si>
+  <si>
+    <t>F02_TC04</t>
+  </si>
+  <si>
+    <t>null</t>
+  </si>
+  <si>
+    <t>1,2,3,10</t>
+  </si>
+  <si>
+    <t>F02_TC05</t>
+  </si>
+  <si>
+    <t>[Payment(1, Card, 100.0f),Payment(1, Cash, 100.0f)]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1,2,4,6,7,8,6,7,6,9,10 </t>
+  </si>
+  <si>
+    <t>100.0f</t>
+  </si>
+  <si>
+    <t>0.0f</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1-2F-4F-6T-7T-8-6F-9-10 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1-2F-4F-6T-7F-6F-9-10 </t>
+  </si>
+  <si>
+    <t>1-2F-4T-5-10</t>
+  </si>
+  <si>
+    <t>1-2T-3-10</t>
+  </si>
+  <si>
+    <t>4+1=5</t>
+  </si>
+  <si>
+    <t>13-10+2=5</t>
+  </si>
+  <si>
+    <t>F02_P05</t>
+  </si>
+  <si>
+    <t>1-2T-4F-6F-9-10-imposibil</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="21">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -666,6 +716,12 @@
       <name val="JetBrains Mono"/>
       <family val="3"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="13">
     <fill>
@@ -741,7 +797,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="38">
+  <borders count="42">
     <border>
       <left/>
       <right/>
@@ -1200,11 +1256,59 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="double">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="double">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="double">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="109">
+  <cellXfs count="139">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1213,37 +1317,22 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1253,20 +1342,8 @@
     <xf numFmtId="0" fontId="14" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
@@ -1296,6 +1373,9 @@
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1308,51 +1388,66 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1365,20 +1460,68 @@
     <xf numFmtId="0" fontId="13" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="7" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1401,12 +1544,6 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="7" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1422,9 +1559,6 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1432,73 +1566,133 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1521,60 +1715,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>619124</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>116418</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>28035</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>74083</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{95424B39-BE0B-C7B8-934A-E81A6A6B5797}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="619124" y="1195918"/>
-          <a:ext cx="3933287" cy="2296582"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>5292</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>127000</xdr:rowOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>33715</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
       <xdr:colOff>289200</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>147273</xdr:rowOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>28886</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1590,6 +1740,55 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5000625" y="1134382"/>
+          <a:ext cx="4580742" cy="4397837"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>599722</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>7058</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>609856</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>155223</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5D557C6B-2CFD-52D6-6456-096BF2516CEF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
         <a:stretch>
           <a:fillRect/>
@@ -1597,8 +1796,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5164668" y="1566333"/>
-          <a:ext cx="4728908" cy="4518190"/>
+          <a:off x="599722" y="1107725"/>
+          <a:ext cx="3777801" cy="2349498"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1906,53 +2105,53 @@
       <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.86328125" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5"/>
   <cols>
-    <col min="15" max="15" width="19.6640625" customWidth="1"/>
+    <col min="15" max="15" width="19.6328125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:16">
-      <c r="B1" s="12"/>
-      <c r="D1" s="41" t="s">
-        <v>83</v>
-      </c>
-      <c r="E1" s="42"/>
-      <c r="F1" s="42"/>
-      <c r="G1" s="43"/>
+      <c r="B1" s="9"/>
+      <c r="D1" s="33" t="s">
+        <v>76</v>
+      </c>
+      <c r="E1" s="34"/>
+      <c r="F1" s="34"/>
+      <c r="G1" s="35"/>
     </row>
     <row r="2" spans="2:16">
-      <c r="B2" s="40"/>
+      <c r="B2" s="31"/>
     </row>
     <row r="4" spans="2:16">
       <c r="B4" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="N4" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="N4" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="O4" s="5"/>
-      <c r="P4" s="5"/>
+      <c r="O4" s="4"/>
+      <c r="P4" s="4"/>
     </row>
     <row r="5" spans="2:16">
       <c r="B5" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="N5" s="37" t="s">
-        <v>63</v>
-      </c>
-      <c r="O5" s="37"/>
-      <c r="P5" s="37"/>
+      <c r="N5" s="28" t="s">
+        <v>56</v>
+      </c>
+      <c r="O5" s="28"/>
+      <c r="P5" s="28"/>
     </row>
     <row r="6" spans="2:16">
       <c r="B6" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="N6" s="29"/>
-      <c r="O6" s="29" t="s">
-        <v>68</v>
-      </c>
-      <c r="P6" s="29" t="s">
-        <v>64</v>
+      <c r="N6" s="20"/>
+      <c r="O6" s="20" t="s">
+        <v>61</v>
+      </c>
+      <c r="P6" s="20" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="7" spans="2:16">
@@ -1960,13 +2159,13 @@
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
-      <c r="N7" s="29" t="s">
-        <v>65</v>
-      </c>
-      <c r="O7" s="29" t="s">
-        <v>86</v>
-      </c>
-      <c r="P7" s="29">
+      <c r="N7" s="20" t="s">
+        <v>58</v>
+      </c>
+      <c r="O7" s="20" t="s">
+        <v>79</v>
+      </c>
+      <c r="P7" s="20">
         <v>234</v>
       </c>
     </row>
@@ -1975,28 +2174,28 @@
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
-      <c r="N8" s="29" t="s">
-        <v>66</v>
-      </c>
-      <c r="O8" s="29" t="s">
-        <v>87</v>
-      </c>
-      <c r="P8" s="29">
+      <c r="N8" s="20" t="s">
+        <v>59</v>
+      </c>
+      <c r="O8" s="20" t="s">
+        <v>80</v>
+      </c>
+      <c r="P8" s="20">
         <v>234</v>
       </c>
     </row>
     <row r="9" spans="2:16">
-      <c r="B9" s="108" t="s">
-        <v>85</v>
+      <c r="B9" s="32" t="s">
+        <v>78</v>
       </c>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
-      <c r="N9" s="29" t="s">
-        <v>67</v>
-      </c>
-      <c r="O9" s="29"/>
-      <c r="P9" s="29"/>
+      <c r="N9" s="20" t="s">
+        <v>60</v>
+      </c>
+      <c r="O9" s="20"/>
+      <c r="P9" s="20"/>
     </row>
     <row r="10" spans="2:16">
       <c r="C10" s="1"/>
@@ -2005,7 +2204,7 @@
     </row>
     <row r="11" spans="2:16">
       <c r="B11" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
@@ -2038,395 +2237,412 @@
   </sheetPr>
   <dimension ref="B1:T24"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="T31" sqref="T31"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="R22" sqref="R22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.86328125" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5"/>
   <cols>
     <col min="2" max="2" width="10" customWidth="1"/>
-    <col min="17" max="17" width="10.6640625" customWidth="1"/>
+    <col min="17" max="17" width="10.6328125" customWidth="1"/>
+    <col min="20" max="20" width="9.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:20">
-      <c r="B1" s="12"/>
-      <c r="D1" s="41" t="s">
-        <v>83</v>
-      </c>
-      <c r="E1" s="42"/>
-      <c r="F1" s="42"/>
-      <c r="G1" s="42"/>
-      <c r="H1" s="42"/>
-      <c r="I1" s="43"/>
+      <c r="B1" s="9"/>
+      <c r="D1" s="33" t="s">
+        <v>76</v>
+      </c>
+      <c r="E1" s="34"/>
+      <c r="F1" s="34"/>
+      <c r="G1" s="34"/>
+      <c r="H1" s="34"/>
+      <c r="I1" s="35"/>
     </row>
     <row r="3" spans="2:20">
-      <c r="B3" s="47" t="s">
+      <c r="B3" s="37" t="s">
+        <v>45</v>
+      </c>
+      <c r="C3" s="38"/>
+      <c r="D3" s="38"/>
+      <c r="E3" s="38"/>
+      <c r="F3" s="38"/>
+      <c r="G3" s="38"/>
+      <c r="H3" s="38"/>
+      <c r="I3" s="38"/>
+      <c r="J3" s="38"/>
+      <c r="K3" s="39"/>
+    </row>
+    <row r="6" spans="2:20">
+      <c r="B6" s="33" t="s">
         <v>46</v>
       </c>
-      <c r="C3" s="48"/>
-      <c r="D3" s="48"/>
-      <c r="E3" s="48"/>
-      <c r="F3" s="48"/>
-      <c r="G3" s="48"/>
-      <c r="H3" s="48"/>
-      <c r="I3" s="48"/>
-      <c r="J3" s="48"/>
-      <c r="K3" s="49"/>
-    </row>
-    <row r="6" spans="2:20">
-      <c r="B6" s="41" t="s">
+      <c r="C6" s="34"/>
+      <c r="D6" s="34"/>
+      <c r="E6" s="35"/>
+      <c r="F6" s="24"/>
+      <c r="G6" s="24"/>
+      <c r="I6" s="33" t="s">
         <v>47</v>
       </c>
-      <c r="C6" s="42"/>
-      <c r="D6" s="42"/>
-      <c r="E6" s="43"/>
-      <c r="F6" s="33"/>
-      <c r="G6" s="33"/>
-      <c r="I6" s="41" t="s">
+      <c r="J6" s="34"/>
+      <c r="K6" s="34"/>
+      <c r="L6" s="34"/>
+      <c r="M6" s="34"/>
+      <c r="N6" s="34"/>
+      <c r="O6" s="34"/>
+      <c r="Q6" s="33" t="s">
         <v>48</v>
       </c>
-      <c r="J6" s="42"/>
-      <c r="K6" s="42"/>
-      <c r="L6" s="42"/>
-      <c r="M6" s="42"/>
-      <c r="N6" s="42"/>
-      <c r="O6" s="42"/>
-      <c r="Q6" s="41" t="s">
+      <c r="R6" s="34"/>
+      <c r="S6" s="34"/>
+      <c r="T6" s="34"/>
+    </row>
+    <row r="8" spans="2:20">
+      <c r="B8" s="25" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" s="51" t="s">
+        <v>12</v>
+      </c>
+      <c r="D8" s="51"/>
+      <c r="E8" s="51"/>
+      <c r="F8" s="26"/>
+      <c r="G8" s="26"/>
+      <c r="H8">
+        <v>1</v>
+      </c>
+      <c r="I8" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q8" s="50" t="s">
+        <v>14</v>
+      </c>
+      <c r="R8" s="50"/>
+      <c r="S8" s="50"/>
+      <c r="T8" s="27">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="2:20">
+      <c r="B9" s="28" t="s">
+        <v>30</v>
+      </c>
+      <c r="C9" s="40" t="s">
+        <v>1</v>
+      </c>
+      <c r="D9" s="40"/>
+      <c r="E9" s="40"/>
+      <c r="F9" s="29"/>
+      <c r="G9" s="29"/>
+      <c r="I9" s="30"/>
+      <c r="Q9" s="50" t="s">
+        <v>37</v>
+      </c>
+      <c r="R9" s="50"/>
+      <c r="S9" s="50"/>
+      <c r="T9" s="27" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="10" spans="2:20">
+      <c r="B10" s="28" t="s">
+        <v>31</v>
+      </c>
+      <c r="C10" s="40" t="s">
+        <v>1</v>
+      </c>
+      <c r="D10" s="40"/>
+      <c r="E10" s="40"/>
+      <c r="F10" s="29"/>
+      <c r="G10" s="29"/>
+      <c r="H10">
+        <v>2</v>
+      </c>
+      <c r="I10" s="41" t="s">
+        <v>33</v>
+      </c>
+      <c r="J10" s="42"/>
+      <c r="K10" s="42"/>
+      <c r="L10" s="42"/>
+      <c r="M10" s="42"/>
+      <c r="N10" s="42"/>
+      <c r="O10" s="43"/>
+      <c r="Q10" s="50" t="s">
+        <v>38</v>
+      </c>
+      <c r="R10" s="50" t="s">
+        <v>13</v>
+      </c>
+      <c r="S10" s="50"/>
+      <c r="T10" s="27" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="11" spans="2:20">
+      <c r="B11" s="28" t="s">
+        <v>32</v>
+      </c>
+      <c r="C11" s="40" t="s">
+        <v>1</v>
+      </c>
+      <c r="D11" s="40"/>
+      <c r="E11" s="40"/>
+      <c r="F11" s="29"/>
+      <c r="G11" s="29"/>
+      <c r="H11">
+        <v>3</v>
+      </c>
+      <c r="I11" s="44"/>
+      <c r="J11" s="45"/>
+      <c r="K11" s="45"/>
+      <c r="L11" s="45"/>
+      <c r="M11" s="45"/>
+      <c r="N11" s="45"/>
+      <c r="O11" s="46"/>
+    </row>
+    <row r="12" spans="2:20">
+      <c r="B12" s="28" t="s">
+        <v>8</v>
+      </c>
+      <c r="C12" s="40" t="s">
+        <v>1</v>
+      </c>
+      <c r="D12" s="40"/>
+      <c r="E12" s="40"/>
+      <c r="F12" s="29"/>
+      <c r="G12" s="29"/>
+      <c r="H12">
+        <v>4</v>
+      </c>
+      <c r="I12" s="44"/>
+      <c r="J12" s="45"/>
+      <c r="K12" s="45"/>
+      <c r="L12" s="45"/>
+      <c r="M12" s="45"/>
+      <c r="N12" s="45"/>
+      <c r="O12" s="46"/>
+    </row>
+    <row r="13" spans="2:20">
+      <c r="B13" s="28" t="s">
+        <v>6</v>
+      </c>
+      <c r="C13" s="40" t="s">
+        <v>1</v>
+      </c>
+      <c r="D13" s="40"/>
+      <c r="E13" s="40"/>
+      <c r="F13" s="29"/>
+      <c r="G13" s="29"/>
+      <c r="H13">
+        <v>5</v>
+      </c>
+      <c r="I13" s="44"/>
+      <c r="J13" s="45"/>
+      <c r="K13" s="45"/>
+      <c r="L13" s="45"/>
+      <c r="M13" s="45"/>
+      <c r="N13" s="45"/>
+      <c r="O13" s="46"/>
+      <c r="Q13" s="33" t="s">
         <v>49</v>
       </c>
-      <c r="R6" s="42"/>
-      <c r="S6" s="42"/>
-      <c r="T6" s="42"/>
-    </row>
-    <row r="8" spans="2:20">
-      <c r="B8" s="34" t="s">
-        <v>11</v>
-      </c>
-      <c r="C8" s="59" t="s">
-        <v>12</v>
-      </c>
-      <c r="D8" s="59"/>
-      <c r="E8" s="59"/>
-      <c r="F8" s="35"/>
-      <c r="G8" s="35"/>
-      <c r="I8" s="12" t="s">
-        <v>82</v>
-      </c>
-      <c r="Q8" s="46" t="s">
-        <v>14</v>
-      </c>
-      <c r="R8" s="46"/>
-      <c r="S8" s="46"/>
-      <c r="T8" s="36">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="9" spans="2:20">
-      <c r="B9" s="37" t="s">
-        <v>30</v>
-      </c>
-      <c r="C9" s="45" t="s">
+      <c r="R13" s="34"/>
+      <c r="S13" s="34"/>
+      <c r="T13" s="34"/>
+    </row>
+    <row r="14" spans="2:20">
+      <c r="B14" s="28" t="s">
+        <v>8</v>
+      </c>
+      <c r="C14" s="40" t="s">
         <v>1</v>
       </c>
-      <c r="D9" s="45"/>
-      <c r="E9" s="45"/>
-      <c r="F9" s="38"/>
-      <c r="G9" s="38"/>
-      <c r="I9" s="39"/>
-      <c r="Q9" s="46" t="s">
-        <v>37</v>
-      </c>
-      <c r="R9" s="46"/>
-      <c r="S9" s="46"/>
-      <c r="T9" s="36" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="10" spans="2:20">
-      <c r="B10" s="37" t="s">
-        <v>31</v>
-      </c>
-      <c r="C10" s="45" t="s">
-        <v>1</v>
-      </c>
-      <c r="D10" s="45"/>
-      <c r="E10" s="45"/>
-      <c r="F10" s="38"/>
-      <c r="G10" s="38"/>
-      <c r="H10">
-        <v>1</v>
-      </c>
-      <c r="I10" s="50" t="s">
-        <v>33</v>
-      </c>
-      <c r="J10" s="51"/>
-      <c r="K10" s="51"/>
-      <c r="L10" s="51"/>
-      <c r="M10" s="51"/>
-      <c r="N10" s="51"/>
-      <c r="O10" s="52"/>
-      <c r="Q10" s="46" t="s">
-        <v>38</v>
-      </c>
-      <c r="R10" s="46" t="s">
-        <v>13</v>
-      </c>
-      <c r="S10" s="46"/>
-      <c r="T10" s="36" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="11" spans="2:20">
-      <c r="B11" s="37" t="s">
-        <v>32</v>
-      </c>
-      <c r="C11" s="45" t="s">
-        <v>1</v>
-      </c>
-      <c r="D11" s="45"/>
-      <c r="E11" s="45"/>
-      <c r="F11" s="38"/>
-      <c r="G11" s="38"/>
-      <c r="I11" s="53"/>
-      <c r="J11" s="54"/>
-      <c r="K11" s="54"/>
-      <c r="L11" s="54"/>
-      <c r="M11" s="54"/>
-      <c r="N11" s="54"/>
-      <c r="O11" s="55"/>
-    </row>
-    <row r="12" spans="2:20">
-      <c r="B12" s="37" t="s">
-        <v>8</v>
-      </c>
-      <c r="C12" s="45" t="s">
-        <v>1</v>
-      </c>
-      <c r="D12" s="45"/>
-      <c r="E12" s="45"/>
-      <c r="F12" s="38"/>
-      <c r="G12" s="38"/>
-      <c r="H12">
-        <v>2</v>
-      </c>
-      <c r="I12" s="53"/>
-      <c r="J12" s="54"/>
-      <c r="K12" s="54"/>
-      <c r="L12" s="54"/>
-      <c r="M12" s="54"/>
-      <c r="N12" s="54"/>
-      <c r="O12" s="55"/>
-    </row>
-    <row r="13" spans="2:20">
-      <c r="B13" s="37" t="s">
+      <c r="D14" s="40"/>
+      <c r="E14" s="40"/>
+      <c r="F14" s="29"/>
+      <c r="G14" s="29"/>
+      <c r="H14">
         <v>6</v>
       </c>
-      <c r="C13" s="45" t="s">
-        <v>1</v>
-      </c>
-      <c r="D13" s="45"/>
-      <c r="E13" s="45"/>
-      <c r="F13" s="38"/>
-      <c r="G13" s="38"/>
-      <c r="H13">
-        <v>3</v>
-      </c>
-      <c r="I13" s="53"/>
-      <c r="J13" s="54"/>
-      <c r="K13" s="54"/>
-      <c r="L13" s="54"/>
-      <c r="M13" s="54"/>
-      <c r="N13" s="54"/>
-      <c r="O13" s="55"/>
-      <c r="Q13" s="41" t="s">
-        <v>50</v>
-      </c>
-      <c r="R13" s="42"/>
-      <c r="S13" s="42"/>
-      <c r="T13" s="42"/>
-    </row>
-    <row r="14" spans="2:20">
-      <c r="B14" s="37" t="s">
-        <v>8</v>
-      </c>
-      <c r="C14" s="45" t="s">
-        <v>1</v>
-      </c>
-      <c r="D14" s="45"/>
-      <c r="E14" s="45"/>
-      <c r="F14" s="38"/>
-      <c r="G14" s="38"/>
-      <c r="H14">
-        <v>4</v>
-      </c>
-      <c r="I14" s="53"/>
-      <c r="J14" s="54"/>
-      <c r="K14" s="54"/>
-      <c r="L14" s="54"/>
-      <c r="M14" s="54"/>
-      <c r="N14" s="54"/>
-      <c r="O14" s="55"/>
+      <c r="I14" s="44"/>
+      <c r="J14" s="45"/>
+      <c r="K14" s="45"/>
+      <c r="L14" s="45"/>
+      <c r="M14" s="45"/>
+      <c r="N14" s="45"/>
+      <c r="O14" s="46"/>
     </row>
     <row r="15" spans="2:20">
       <c r="H15">
-        <v>5</v>
-      </c>
-      <c r="I15" s="53"/>
-      <c r="J15" s="54"/>
-      <c r="K15" s="54"/>
-      <c r="L15" s="54"/>
-      <c r="M15" s="54"/>
-      <c r="N15" s="54"/>
-      <c r="O15" s="55"/>
-      <c r="Q15" s="34" t="s">
+        <v>7</v>
+      </c>
+      <c r="I15" s="44"/>
+      <c r="J15" s="45"/>
+      <c r="K15" s="45"/>
+      <c r="L15" s="45"/>
+      <c r="M15" s="45"/>
+      <c r="N15" s="45"/>
+      <c r="O15" s="46"/>
+      <c r="Q15" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="R15" s="59" t="s">
+      <c r="R15" s="51" t="s">
         <v>16</v>
       </c>
-      <c r="S15" s="59"/>
-      <c r="T15" s="59"/>
+      <c r="S15" s="51"/>
+      <c r="T15" s="51"/>
     </row>
     <row r="16" spans="2:20">
       <c r="H16">
-        <v>6</v>
-      </c>
-      <c r="I16" s="53"/>
-      <c r="J16" s="54"/>
-      <c r="K16" s="54"/>
-      <c r="L16" s="54"/>
-      <c r="M16" s="54"/>
-      <c r="N16" s="54"/>
-      <c r="O16" s="55"/>
-      <c r="Q16" s="37" t="s">
-        <v>57</v>
-      </c>
-      <c r="R16" s="44" t="s">
-        <v>88</v>
-      </c>
-      <c r="S16" s="44"/>
-      <c r="T16" s="44"/>
+        <v>8</v>
+      </c>
+      <c r="I16" s="44"/>
+      <c r="J16" s="45"/>
+      <c r="K16" s="45"/>
+      <c r="L16" s="45"/>
+      <c r="M16" s="45"/>
+      <c r="N16" s="45"/>
+      <c r="O16" s="46"/>
+      <c r="Q16" s="28" t="s">
+        <v>52</v>
+      </c>
+      <c r="R16" s="138" t="s">
+        <v>108</v>
+      </c>
+      <c r="S16" s="138"/>
+      <c r="T16" s="138"/>
     </row>
     <row r="17" spans="8:20">
-      <c r="I17" s="53"/>
-      <c r="J17" s="54"/>
-      <c r="K17" s="54"/>
-      <c r="L17" s="54"/>
-      <c r="M17" s="54"/>
-      <c r="N17" s="54"/>
-      <c r="O17" s="55"/>
-      <c r="Q17" s="37" t="s">
-        <v>58</v>
-      </c>
-      <c r="R17" s="44" t="s">
-        <v>89</v>
-      </c>
-      <c r="S17" s="44"/>
-      <c r="T17" s="44"/>
+      <c r="I17" s="44"/>
+      <c r="J17" s="45"/>
+      <c r="K17" s="45"/>
+      <c r="L17" s="45"/>
+      <c r="M17" s="45"/>
+      <c r="N17" s="45"/>
+      <c r="O17" s="46"/>
+      <c r="Q17" s="28" t="s">
+        <v>53</v>
+      </c>
+      <c r="R17" s="138" t="s">
+        <v>109</v>
+      </c>
+      <c r="S17" s="138"/>
+      <c r="T17" s="138"/>
     </row>
     <row r="18" spans="8:20">
       <c r="H18">
-        <v>7</v>
-      </c>
-      <c r="I18" s="53"/>
-      <c r="J18" s="54"/>
-      <c r="K18" s="54"/>
-      <c r="L18" s="54"/>
-      <c r="M18" s="54"/>
-      <c r="N18" s="54"/>
-      <c r="O18" s="55"/>
-      <c r="Q18" s="37" t="s">
-        <v>61</v>
-      </c>
-      <c r="R18" s="44" t="s">
-        <v>90</v>
-      </c>
-      <c r="S18" s="44"/>
-      <c r="T18" s="44"/>
+        <v>9</v>
+      </c>
+      <c r="I18" s="44"/>
+      <c r="J18" s="45"/>
+      <c r="K18" s="45"/>
+      <c r="L18" s="45"/>
+      <c r="M18" s="45"/>
+      <c r="N18" s="45"/>
+      <c r="O18" s="46"/>
+      <c r="Q18" s="28" t="s">
+        <v>54</v>
+      </c>
+      <c r="R18" s="138" t="s">
+        <v>110</v>
+      </c>
+      <c r="S18" s="138"/>
+      <c r="T18" s="138"/>
     </row>
     <row r="19" spans="8:20">
       <c r="H19">
+        <v>10</v>
+      </c>
+      <c r="I19" s="44"/>
+      <c r="J19" s="45"/>
+      <c r="K19" s="45"/>
+      <c r="L19" s="45"/>
+      <c r="M19" s="45"/>
+      <c r="N19" s="45"/>
+      <c r="O19" s="46"/>
+      <c r="Q19" s="28" t="s">
+        <v>81</v>
+      </c>
+      <c r="R19" s="138" t="s">
+        <v>111</v>
+      </c>
+      <c r="S19" s="138"/>
+      <c r="T19" s="138"/>
+    </row>
+    <row r="20" spans="8:20">
+      <c r="I20" s="44"/>
+      <c r="J20" s="45"/>
+      <c r="K20" s="45"/>
+      <c r="L20" s="45"/>
+      <c r="M20" s="45"/>
+      <c r="N20" s="45"/>
+      <c r="O20" s="46"/>
+      <c r="Q20" s="28" t="s">
+        <v>114</v>
+      </c>
+      <c r="R20" s="138" t="s">
+        <v>115</v>
+      </c>
+      <c r="S20" s="138"/>
+      <c r="T20" s="138"/>
+    </row>
+    <row r="21" spans="8:20">
+      <c r="I21" s="44"/>
+      <c r="J21" s="45"/>
+      <c r="K21" s="45"/>
+      <c r="L21" s="45"/>
+      <c r="M21" s="45"/>
+      <c r="N21" s="45"/>
+      <c r="O21" s="46"/>
+      <c r="Q21" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="I19" s="53"/>
-      <c r="J19" s="54"/>
-      <c r="K19" s="54"/>
-      <c r="L19" s="54"/>
-      <c r="M19" s="54"/>
-      <c r="N19" s="54"/>
-      <c r="O19" s="55"/>
-      <c r="Q19" s="37" t="s">
-        <v>92</v>
-      </c>
-      <c r="R19" s="44" t="s">
-        <v>91</v>
-      </c>
-      <c r="S19" s="44"/>
-      <c r="T19" s="44"/>
-    </row>
-    <row r="20" spans="8:20">
-      <c r="I20" s="53"/>
-      <c r="J20" s="54"/>
-      <c r="K20" s="54"/>
-      <c r="L20" s="54"/>
-      <c r="M20" s="54"/>
-      <c r="N20" s="54"/>
-      <c r="O20" s="55"/>
-      <c r="Q20" s="37" t="s">
-        <v>6</v>
-      </c>
-      <c r="R20" s="44" t="s">
+      <c r="R21" s="36" t="s">
         <v>1</v>
       </c>
-      <c r="S20" s="44"/>
-      <c r="T20" s="44"/>
-    </row>
-    <row r="21" spans="8:20">
-      <c r="I21" s="53"/>
-      <c r="J21" s="54"/>
-      <c r="K21" s="54"/>
-      <c r="L21" s="54"/>
-      <c r="M21" s="54"/>
-      <c r="N21" s="54"/>
-      <c r="O21" s="55"/>
-      <c r="Q21" s="37" t="s">
-        <v>8</v>
-      </c>
-      <c r="R21" s="44" t="s">
-        <v>1</v>
-      </c>
-      <c r="S21" s="44"/>
-      <c r="T21" s="44"/>
+      <c r="S21" s="36"/>
+      <c r="T21" s="36"/>
     </row>
     <row r="22" spans="8:20">
-      <c r="I22" s="53"/>
-      <c r="J22" s="54"/>
-      <c r="K22" s="54"/>
-      <c r="L22" s="54"/>
-      <c r="M22" s="54"/>
-      <c r="N22" s="54"/>
-      <c r="O22" s="55"/>
+      <c r="I22" s="44"/>
+      <c r="J22" s="45"/>
+      <c r="K22" s="45"/>
+      <c r="L22" s="45"/>
+      <c r="M22" s="45"/>
+      <c r="N22" s="45"/>
+      <c r="O22" s="46"/>
     </row>
     <row r="23" spans="8:20">
-      <c r="I23" s="53"/>
-      <c r="J23" s="54"/>
-      <c r="K23" s="54"/>
-      <c r="L23" s="54"/>
-      <c r="M23" s="54"/>
-      <c r="N23" s="54"/>
-      <c r="O23" s="55"/>
+      <c r="I23" s="44"/>
+      <c r="J23" s="45"/>
+      <c r="K23" s="45"/>
+      <c r="L23" s="45"/>
+      <c r="M23" s="45"/>
+      <c r="N23" s="45"/>
+      <c r="O23" s="46"/>
     </row>
     <row r="24" spans="8:20">
-      <c r="I24" s="56"/>
-      <c r="J24" s="57"/>
-      <c r="K24" s="57"/>
-      <c r="L24" s="57"/>
-      <c r="M24" s="57"/>
-      <c r="N24" s="57"/>
-      <c r="O24" s="58"/>
+      <c r="I24" s="47"/>
+      <c r="J24" s="48"/>
+      <c r="K24" s="48"/>
+      <c r="L24" s="48"/>
+      <c r="M24" s="48"/>
+      <c r="N24" s="48"/>
+      <c r="O24" s="49"/>
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="R17:T17"/>
+    <mergeCell ref="R18:T18"/>
+    <mergeCell ref="R19:T19"/>
+    <mergeCell ref="R16:T16"/>
+    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="Q9:S9"/>
+    <mergeCell ref="C12:E12"/>
+    <mergeCell ref="C13:E13"/>
+    <mergeCell ref="Q13:T13"/>
+    <mergeCell ref="C14:E14"/>
     <mergeCell ref="D1:I1"/>
     <mergeCell ref="R20:T20"/>
     <mergeCell ref="R21:T21"/>
@@ -2441,16 +2657,6 @@
     <mergeCell ref="B6:E6"/>
     <mergeCell ref="I6:O6"/>
     <mergeCell ref="Q6:T6"/>
-    <mergeCell ref="R17:T17"/>
-    <mergeCell ref="R19:T19"/>
-    <mergeCell ref="C9:E9"/>
-    <mergeCell ref="Q9:S9"/>
-    <mergeCell ref="R16:T16"/>
-    <mergeCell ref="C12:E12"/>
-    <mergeCell ref="C13:E13"/>
-    <mergeCell ref="Q13:T13"/>
-    <mergeCell ref="C14:E14"/>
-    <mergeCell ref="R18:T18"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -2463,481 +2669,583 @@
   <sheetPr>
     <tabColor theme="7" tint="0.59999389629810485"/>
   </sheetPr>
-  <dimension ref="B1:AB16"/>
+  <dimension ref="B1:AC16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+    <sheetView topLeftCell="B2" zoomScale="68" workbookViewId="0">
+      <selection activeCell="P4" sqref="P4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.86328125" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5"/>
   <cols>
-    <col min="2" max="2" width="12.33203125" customWidth="1"/>
-    <col min="3" max="4" width="18.19921875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.796875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.19921875" customWidth="1"/>
-    <col min="7" max="7" width="11.3984375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.19921875" customWidth="1"/>
-    <col min="9" max="9" width="9.33203125" customWidth="1"/>
-    <col min="10" max="10" width="14.6640625" customWidth="1"/>
-    <col min="11" max="11" width="6.06640625" customWidth="1"/>
-    <col min="12" max="12" width="6.3984375" customWidth="1"/>
+    <col min="2" max="2" width="12.36328125" customWidth="1"/>
+    <col min="3" max="3" width="31" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.54296875" customWidth="1"/>
+    <col min="5" max="5" width="19.81640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20" customWidth="1"/>
+    <col min="7" max="7" width="11.36328125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.1796875" customWidth="1"/>
+    <col min="9" max="9" width="9.36328125" customWidth="1"/>
+    <col min="10" max="10" width="14.6328125" customWidth="1"/>
+    <col min="11" max="11" width="6.08984375" customWidth="1"/>
+    <col min="12" max="12" width="6.90625" customWidth="1"/>
     <col min="13" max="13" width="5" customWidth="1"/>
-    <col min="15" max="15" width="11.796875" customWidth="1"/>
-    <col min="16" max="16" width="8.796875" customWidth="1"/>
-    <col min="17" max="17" width="8.86328125" customWidth="1"/>
-    <col min="21" max="21" width="9.06640625" customWidth="1"/>
-    <col min="22" max="22" width="2.19921875" bestFit="1" customWidth="1"/>
-    <col min="23" max="24" width="2.06640625" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="3.53125" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="2.19921875" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="4.06640625" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="5.19921875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="11.81640625" customWidth="1"/>
+    <col min="16" max="17" width="8.81640625" customWidth="1"/>
+    <col min="20" max="20" width="8.81640625" customWidth="1"/>
+    <col min="21" max="21" width="9.08984375" hidden="1" customWidth="1"/>
+    <col min="22" max="22" width="2.1796875" hidden="1" customWidth="1"/>
+    <col min="23" max="24" width="2.08984375" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="3.54296875" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="2.1796875" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="4.08984375" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="5.1796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:28">
-      <c r="B1" s="12"/>
-      <c r="D1" s="41" t="s">
+    <row r="1" spans="2:29">
+      <c r="B1" s="9"/>
+      <c r="D1" s="33" t="s">
+        <v>76</v>
+      </c>
+      <c r="E1" s="34"/>
+      <c r="F1" s="34"/>
+      <c r="G1" s="35"/>
+    </row>
+    <row r="3" spans="2:29">
+      <c r="B3" s="37" t="s">
+        <v>77</v>
+      </c>
+      <c r="C3" s="38"/>
+      <c r="D3" s="38"/>
+      <c r="E3" s="38"/>
+      <c r="F3" s="39"/>
+    </row>
+    <row r="5" spans="2:29">
+      <c r="B5" s="8"/>
+    </row>
+    <row r="6" spans="2:29" ht="15.5">
+      <c r="B6" s="52" t="s">
+        <v>27</v>
+      </c>
+      <c r="C6" s="115" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6" s="116"/>
+      <c r="E6" s="53" t="s">
+        <v>18</v>
+      </c>
+      <c r="F6" s="52" t="s">
+        <v>19</v>
+      </c>
+      <c r="G6" s="52"/>
+      <c r="H6" s="52"/>
+      <c r="I6" s="52"/>
+      <c r="J6" s="52"/>
+      <c r="K6" s="52"/>
+      <c r="L6" s="52"/>
+      <c r="M6" s="52"/>
+      <c r="N6" s="52"/>
+      <c r="O6" s="52"/>
+      <c r="P6" s="52"/>
+      <c r="Q6" s="52"/>
+      <c r="R6" s="52"/>
+      <c r="S6" s="52"/>
+      <c r="T6" s="52"/>
+      <c r="U6" s="52"/>
+      <c r="V6" s="52"/>
+      <c r="W6" s="52"/>
+      <c r="X6" s="52"/>
+      <c r="Y6" s="52"/>
+      <c r="Z6" s="52"/>
+      <c r="AA6" s="52"/>
+      <c r="AB6" s="52"/>
+      <c r="AC6" s="52"/>
+    </row>
+    <row r="7" spans="2:29" ht="15.5" customHeight="1">
+      <c r="B7" s="52"/>
+      <c r="C7" s="117"/>
+      <c r="D7" s="118"/>
+      <c r="E7" s="54"/>
+      <c r="F7" s="60" t="s">
+        <v>35</v>
+      </c>
+      <c r="G7" s="59" t="s">
+        <v>36</v>
+      </c>
+      <c r="H7" s="59"/>
+      <c r="I7" s="59"/>
+      <c r="J7" s="59"/>
+      <c r="K7" s="59"/>
+      <c r="L7" s="59"/>
+      <c r="M7" s="59"/>
+      <c r="N7" s="59"/>
+      <c r="O7" s="59"/>
+      <c r="P7" s="59"/>
+      <c r="Q7" s="56" t="s">
+        <v>62</v>
+      </c>
+      <c r="R7" s="56"/>
+      <c r="S7" s="56"/>
+      <c r="T7" s="56"/>
+      <c r="U7" s="56"/>
+      <c r="V7" s="56"/>
+      <c r="W7" s="55" t="s">
+        <v>20</v>
+      </c>
+      <c r="X7" s="55"/>
+      <c r="Y7" s="55"/>
+      <c r="Z7" s="55"/>
+      <c r="AA7" s="55"/>
+      <c r="AB7" s="55"/>
+      <c r="AC7" s="55"/>
+    </row>
+    <row r="8" spans="2:29" ht="15.65" customHeight="1">
+      <c r="B8" s="52"/>
+      <c r="C8" s="57" t="s">
+        <v>82</v>
+      </c>
+      <c r="D8" s="57" t="s">
         <v>83</v>
       </c>
-      <c r="E1" s="42"/>
-      <c r="F1" s="42"/>
-      <c r="G1" s="43"/>
-    </row>
-    <row r="3" spans="2:28">
-      <c r="B3" s="47" t="s">
+      <c r="E8" s="57" t="s">
         <v>84</v>
       </c>
-      <c r="C3" s="48"/>
-      <c r="D3" s="48"/>
-      <c r="E3" s="48"/>
-      <c r="F3" s="49"/>
-    </row>
-    <row r="5" spans="2:28">
-      <c r="B5" s="11"/>
-    </row>
-    <row r="6" spans="2:28" ht="15.75">
-      <c r="B6" s="66" t="s">
-        <v>27</v>
-      </c>
-      <c r="C6" s="66" t="s">
-        <v>17</v>
-      </c>
-      <c r="D6" s="67" t="s">
-        <v>18</v>
-      </c>
-      <c r="E6" s="66" t="s">
-        <v>19</v>
-      </c>
-      <c r="F6" s="66"/>
-      <c r="G6" s="66"/>
-      <c r="H6" s="66"/>
-      <c r="I6" s="66"/>
-      <c r="J6" s="66"/>
-      <c r="K6" s="66"/>
-      <c r="L6" s="66"/>
-      <c r="M6" s="66"/>
-      <c r="N6" s="66"/>
-      <c r="O6" s="66"/>
-      <c r="P6" s="66"/>
-      <c r="Q6" s="66"/>
-      <c r="R6" s="66"/>
-      <c r="S6" s="66"/>
-      <c r="T6" s="66"/>
-      <c r="U6" s="66"/>
-      <c r="V6" s="66"/>
-      <c r="W6" s="66"/>
-      <c r="X6" s="66"/>
-      <c r="Y6" s="66"/>
-      <c r="Z6" s="66"/>
-      <c r="AA6" s="66"/>
-      <c r="AB6" s="66"/>
-    </row>
-    <row r="7" spans="2:28" ht="15.75">
-      <c r="B7" s="66"/>
-      <c r="C7" s="66"/>
-      <c r="D7" s="68"/>
-      <c r="E7" s="63" t="s">
-        <v>35</v>
-      </c>
-      <c r="F7" s="62" t="s">
-        <v>36</v>
-      </c>
-      <c r="G7" s="62"/>
-      <c r="H7" s="62"/>
-      <c r="I7" s="62"/>
-      <c r="J7" s="62"/>
-      <c r="K7" s="62"/>
-      <c r="L7" s="62"/>
-      <c r="M7" s="62"/>
-      <c r="N7" s="62"/>
-      <c r="O7" s="62"/>
-      <c r="P7" s="64" t="s">
-        <v>69</v>
-      </c>
-      <c r="Q7" s="64"/>
-      <c r="R7" s="64"/>
-      <c r="S7" s="64"/>
-      <c r="T7" s="64"/>
-      <c r="U7" s="64"/>
-      <c r="V7" s="65" t="s">
-        <v>20</v>
-      </c>
-      <c r="W7" s="65"/>
-      <c r="X7" s="65"/>
-      <c r="Y7" s="65"/>
-      <c r="Z7" s="65"/>
-      <c r="AA7" s="65"/>
-      <c r="AB7" s="65"/>
-    </row>
-    <row r="8" spans="2:28" ht="15.6" customHeight="1">
-      <c r="B8" s="66"/>
-      <c r="C8" s="60" t="s">
+      <c r="F8" s="60"/>
+      <c r="G8" s="59" t="s">
+        <v>85</v>
+      </c>
+      <c r="H8" s="59"/>
+      <c r="I8" s="59" t="s">
+        <v>86</v>
+      </c>
+      <c r="J8" s="59"/>
+      <c r="K8" s="59" t="s">
+        <v>87</v>
+      </c>
+      <c r="L8" s="59"/>
+      <c r="M8" s="100" t="s">
+        <v>88</v>
+      </c>
+      <c r="N8" s="110"/>
+      <c r="O8" s="110"/>
+      <c r="P8" s="111"/>
+      <c r="Q8" s="56" t="s">
+        <v>52</v>
+      </c>
+      <c r="R8" s="56" t="s">
+        <v>53</v>
+      </c>
+      <c r="S8" s="56" t="s">
+        <v>54</v>
+      </c>
+      <c r="T8" s="119" t="s">
+        <v>81</v>
+      </c>
+      <c r="U8" s="120"/>
+      <c r="V8" s="121"/>
+      <c r="W8" s="55">
+        <v>0</v>
+      </c>
+      <c r="X8" s="55">
         <v>1</v>
       </c>
-      <c r="D8" s="60" t="s">
-        <v>1</v>
-      </c>
-      <c r="E8" s="63"/>
-      <c r="F8" s="62" t="s">
-        <v>53</v>
-      </c>
-      <c r="G8" s="62"/>
-      <c r="H8" s="62" t="s">
-        <v>54</v>
-      </c>
-      <c r="I8" s="62"/>
-      <c r="J8" s="62" t="s">
-        <v>55</v>
-      </c>
-      <c r="K8" s="62"/>
-      <c r="L8" s="62" t="s">
-        <v>1</v>
-      </c>
-      <c r="M8" s="62"/>
-      <c r="N8" s="62" t="s">
-        <v>56</v>
-      </c>
-      <c r="O8" s="62"/>
-      <c r="P8" s="64" t="s">
-        <v>57</v>
-      </c>
-      <c r="Q8" s="64" t="s">
-        <v>58</v>
-      </c>
-      <c r="R8" s="64" t="s">
-        <v>1</v>
-      </c>
-      <c r="S8" s="64" t="s">
-        <v>1</v>
-      </c>
-      <c r="T8" s="64" t="s">
-        <v>1</v>
-      </c>
-      <c r="U8" s="64" t="s">
-        <v>59</v>
-      </c>
-      <c r="V8" s="65">
-        <v>0</v>
-      </c>
-      <c r="W8" s="65">
-        <v>1</v>
-      </c>
-      <c r="X8" s="65">
+      <c r="Y8" s="55">
         <v>2</v>
       </c>
-      <c r="Y8" s="65" t="s">
+      <c r="Z8" s="55" t="s">
         <v>21</v>
       </c>
-      <c r="Z8" s="65" t="s">
+      <c r="AA8" s="55" t="s">
         <v>22</v>
       </c>
-      <c r="AA8" s="65" t="s">
+      <c r="AB8" s="55" t="s">
         <v>23</v>
       </c>
-      <c r="AB8" s="65" t="s">
+      <c r="AC8" s="55" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="9" spans="2:28" ht="15.75">
-      <c r="B9" s="66"/>
-      <c r="C9" s="61"/>
-      <c r="D9" s="61"/>
-      <c r="E9" s="63"/>
-      <c r="F9" s="13" t="s">
+    <row r="9" spans="2:29" ht="15.5">
+      <c r="B9" s="52"/>
+      <c r="C9" s="58"/>
+      <c r="D9" s="58"/>
+      <c r="E9" s="58"/>
+      <c r="F9" s="60"/>
+      <c r="G9" s="101" t="s">
         <v>25</v>
       </c>
-      <c r="G9" s="13" t="s">
+      <c r="H9" s="101" t="s">
         <v>26</v>
       </c>
-      <c r="H9" s="13" t="s">
+      <c r="I9" s="101" t="s">
         <v>25</v>
       </c>
-      <c r="I9" s="13" t="s">
+      <c r="J9" s="101" t="s">
         <v>26</v>
       </c>
-      <c r="J9" s="13" t="s">
+      <c r="K9" s="101" t="s">
         <v>25</v>
       </c>
-      <c r="K9" s="13" t="s">
+      <c r="L9" s="101" t="s">
         <v>26</v>
       </c>
-      <c r="L9" s="13" t="s">
+      <c r="M9" s="100" t="s">
         <v>25</v>
       </c>
-      <c r="M9" s="13" t="s">
+      <c r="N9" s="110"/>
+      <c r="O9" s="111"/>
+      <c r="P9" s="101" t="s">
         <v>26</v>
       </c>
-      <c r="N9" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="O9" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="P9" s="64"/>
-      <c r="Q9" s="64"/>
-      <c r="R9" s="64"/>
-      <c r="S9" s="64"/>
-      <c r="T9" s="64"/>
-      <c r="U9" s="64"/>
-      <c r="V9" s="65"/>
-      <c r="W9" s="65"/>
-      <c r="X9" s="65"/>
-      <c r="Y9" s="65"/>
-      <c r="Z9" s="65"/>
-      <c r="AA9" s="65"/>
-      <c r="AB9" s="65"/>
-    </row>
-    <row r="10" spans="2:28" ht="15.75">
-      <c r="B10" s="14" t="s">
+      <c r="Q9" s="56"/>
+      <c r="R9" s="56"/>
+      <c r="S9" s="56"/>
+      <c r="T9" s="122"/>
+      <c r="U9" s="123"/>
+      <c r="V9" s="124"/>
+      <c r="W9" s="55"/>
+      <c r="X9" s="55"/>
+      <c r="Y9" s="55"/>
+      <c r="Z9" s="55"/>
+      <c r="AA9" s="55"/>
+      <c r="AB9" s="55"/>
+      <c r="AC9" s="55"/>
+    </row>
+    <row r="10" spans="2:29" ht="46.5">
+      <c r="B10" s="102" t="s">
+        <v>50</v>
+      </c>
+      <c r="C10" s="102" t="s">
+        <v>89</v>
+      </c>
+      <c r="D10" s="102" t="s">
+        <v>90</v>
+      </c>
+      <c r="E10" s="103" t="s">
+        <v>91</v>
+      </c>
+      <c r="F10" s="104" t="s">
+        <v>92</v>
+      </c>
+      <c r="G10" s="105"/>
+      <c r="H10" s="105" t="s">
+        <v>93</v>
+      </c>
+      <c r="I10" s="105"/>
+      <c r="J10" s="105" t="s">
+        <v>93</v>
+      </c>
+      <c r="K10" s="105" t="s">
+        <v>93</v>
+      </c>
+      <c r="L10" s="105" t="s">
+        <v>93</v>
+      </c>
+      <c r="M10" s="112" t="s">
+        <v>93</v>
+      </c>
+      <c r="N10" s="113"/>
+      <c r="O10" s="114"/>
+      <c r="P10" s="105"/>
+      <c r="Q10" s="106" t="s">
+        <v>93</v>
+      </c>
+      <c r="R10" s="106"/>
+      <c r="S10" s="106"/>
+      <c r="T10" s="125"/>
+      <c r="U10" s="126"/>
+      <c r="V10" s="127"/>
+      <c r="W10" s="107"/>
+      <c r="X10" s="107" t="s">
+        <v>93</v>
+      </c>
+      <c r="Y10" s="107"/>
+      <c r="Z10" s="107"/>
+      <c r="AA10" s="107" t="s">
+        <v>93</v>
+      </c>
+      <c r="AB10" s="107"/>
+      <c r="AC10" s="107"/>
+    </row>
+    <row r="11" spans="2:29" ht="31">
+      <c r="B11" s="102" t="s">
         <v>51</v>
       </c>
-      <c r="C10" s="14" t="s">
-        <v>1</v>
-      </c>
-      <c r="D10" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="E10" s="16" t="s">
-        <v>40</v>
-      </c>
-      <c r="F10" s="17"/>
-      <c r="G10" s="17"/>
-      <c r="H10" s="17"/>
-      <c r="I10" s="17"/>
-      <c r="J10" s="17"/>
-      <c r="K10" s="17"/>
-      <c r="L10" s="17"/>
-      <c r="M10" s="17"/>
-      <c r="N10" s="17"/>
-      <c r="O10" s="17"/>
-      <c r="P10" s="18"/>
-      <c r="Q10" s="18"/>
-      <c r="R10" s="18"/>
-      <c r="S10" s="18"/>
-      <c r="T10" s="18"/>
-      <c r="U10" s="18"/>
-      <c r="V10" s="19"/>
-      <c r="W10" s="19"/>
-      <c r="X10" s="19"/>
-      <c r="Y10" s="19"/>
-      <c r="Z10" s="19"/>
-      <c r="AA10" s="19"/>
-      <c r="AB10" s="19"/>
-    </row>
-    <row r="11" spans="2:28" ht="15.75">
-      <c r="B11" s="14" t="s">
-        <v>60</v>
-      </c>
-      <c r="C11" s="14" t="s">
-        <v>1</v>
-      </c>
-      <c r="D11" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="E11" s="16"/>
-      <c r="F11" s="17"/>
-      <c r="G11" s="17"/>
-      <c r="H11" s="17"/>
-      <c r="I11" s="17"/>
-      <c r="J11" s="17"/>
-      <c r="K11" s="17"/>
-      <c r="L11" s="17"/>
-      <c r="M11" s="17"/>
-      <c r="N11" s="17"/>
-      <c r="O11" s="17"/>
-      <c r="P11" s="18"/>
-      <c r="Q11" s="18"/>
-      <c r="R11" s="18"/>
-      <c r="S11" s="18"/>
-      <c r="T11" s="18"/>
-      <c r="U11" s="18"/>
-      <c r="V11" s="19"/>
-      <c r="W11" s="19"/>
-      <c r="X11" s="19"/>
-      <c r="Y11" s="19"/>
-      <c r="Z11" s="19"/>
-      <c r="AA11" s="19"/>
-      <c r="AB11" s="19"/>
-    </row>
-    <row r="12" spans="2:28" ht="15.75">
-      <c r="B12" s="14" t="s">
-        <v>1</v>
-      </c>
-      <c r="C12" s="20"/>
-      <c r="D12" s="21"/>
-      <c r="E12" s="16"/>
-      <c r="F12" s="17"/>
-      <c r="G12" s="17"/>
-      <c r="H12" s="17"/>
-      <c r="I12" s="17"/>
-      <c r="J12" s="17"/>
-      <c r="K12" s="17"/>
-      <c r="L12" s="17"/>
-      <c r="M12" s="17"/>
-      <c r="N12" s="17"/>
-      <c r="O12" s="17"/>
-      <c r="P12" s="18"/>
-      <c r="Q12" s="18"/>
-      <c r="R12" s="18"/>
-      <c r="S12" s="18"/>
-      <c r="T12" s="18"/>
-      <c r="U12" s="18"/>
-      <c r="V12" s="19"/>
-      <c r="W12" s="19"/>
-      <c r="X12" s="19"/>
-      <c r="Y12" s="19"/>
-      <c r="Z12" s="19"/>
-      <c r="AA12" s="19"/>
-      <c r="AB12" s="19"/>
-    </row>
-    <row r="13" spans="2:28" ht="15.75">
-      <c r="B13" s="14" t="s">
-        <v>1</v>
-      </c>
-      <c r="C13" s="14"/>
-      <c r="D13" s="15"/>
-      <c r="E13" s="16"/>
-      <c r="F13" s="17"/>
-      <c r="G13" s="17"/>
-      <c r="H13" s="17"/>
-      <c r="I13" s="17"/>
-      <c r="J13" s="17"/>
-      <c r="K13" s="17"/>
-      <c r="L13" s="17"/>
-      <c r="M13" s="17"/>
-      <c r="N13" s="17"/>
-      <c r="O13" s="17"/>
-      <c r="P13" s="18"/>
-      <c r="Q13" s="18"/>
-      <c r="R13" s="18"/>
-      <c r="S13" s="18"/>
-      <c r="T13" s="18"/>
-      <c r="U13" s="18"/>
-      <c r="V13" s="19"/>
-      <c r="W13" s="19"/>
-      <c r="X13" s="19"/>
-      <c r="Y13" s="19"/>
-      <c r="Z13" s="19"/>
-      <c r="AA13" s="19"/>
-      <c r="AB13" s="19"/>
-    </row>
-    <row r="14" spans="2:28" ht="15.75">
-      <c r="B14" s="14" t="s">
-        <v>1</v>
-      </c>
-      <c r="C14" s="14"/>
-      <c r="D14" s="15"/>
-      <c r="E14" s="16"/>
-      <c r="F14" s="17"/>
-      <c r="G14" s="17"/>
-      <c r="H14" s="17"/>
-      <c r="I14" s="17"/>
-      <c r="J14" s="17"/>
-      <c r="K14" s="17"/>
-      <c r="L14" s="17"/>
-      <c r="M14" s="17"/>
-      <c r="N14" s="17"/>
-      <c r="O14" s="17"/>
-      <c r="P14" s="18"/>
-      <c r="Q14" s="18"/>
-      <c r="R14" s="18"/>
-      <c r="S14" s="18"/>
-      <c r="T14" s="18"/>
-      <c r="U14" s="18"/>
-      <c r="V14" s="19"/>
-      <c r="W14" s="19"/>
-      <c r="X14" s="19"/>
-      <c r="Y14" s="19"/>
-      <c r="Z14" s="19"/>
-      <c r="AA14" s="19"/>
-      <c r="AB14" s="19"/>
-    </row>
-    <row r="15" spans="2:28" ht="15.75">
-      <c r="B15" s="14" t="s">
-        <v>1</v>
-      </c>
-      <c r="C15" s="14"/>
-      <c r="D15" s="15"/>
-      <c r="E15" s="16"/>
-      <c r="F15" s="17"/>
-      <c r="G15" s="17"/>
-      <c r="H15" s="17"/>
-      <c r="I15" s="17"/>
-      <c r="J15" s="17"/>
-      <c r="K15" s="17"/>
-      <c r="L15" s="17"/>
-      <c r="M15" s="17"/>
-      <c r="N15" s="17"/>
-      <c r="O15" s="17"/>
-      <c r="P15" s="18"/>
-      <c r="Q15" s="18"/>
-      <c r="R15" s="18"/>
-      <c r="S15" s="18"/>
-      <c r="T15" s="18"/>
-      <c r="U15" s="18"/>
-      <c r="V15" s="19"/>
-      <c r="W15" s="19"/>
-      <c r="X15" s="19"/>
-      <c r="Y15" s="19"/>
-      <c r="Z15" s="19"/>
-      <c r="AA15" s="19"/>
-      <c r="AB15" s="19"/>
-    </row>
-    <row r="16" spans="2:28" ht="15.75">
-      <c r="B16" s="22"/>
+      <c r="C11" s="102" t="s">
+        <v>89</v>
+      </c>
+      <c r="D11" s="102" t="s">
+        <v>94</v>
+      </c>
+      <c r="E11" s="103" t="s">
+        <v>95</v>
+      </c>
+      <c r="F11" s="104" t="s">
+        <v>96</v>
+      </c>
+      <c r="G11" s="105"/>
+      <c r="H11" s="105" t="s">
+        <v>93</v>
+      </c>
+      <c r="I11" s="105"/>
+      <c r="J11" s="105" t="s">
+        <v>93</v>
+      </c>
+      <c r="K11" s="105" t="s">
+        <v>93</v>
+      </c>
+      <c r="L11" s="105" t="s">
+        <v>93</v>
+      </c>
+      <c r="M11" s="112"/>
+      <c r="N11" s="113"/>
+      <c r="O11" s="114"/>
+      <c r="P11" s="105" t="s">
+        <v>93</v>
+      </c>
+      <c r="Q11" s="106"/>
+      <c r="R11" s="106" t="s">
+        <v>93</v>
+      </c>
+      <c r="S11" s="106"/>
+      <c r="T11" s="125"/>
+      <c r="U11" s="126"/>
+      <c r="V11" s="127"/>
+      <c r="W11" s="107"/>
+      <c r="X11" s="107" t="s">
+        <v>93</v>
+      </c>
+      <c r="Y11" s="107"/>
+      <c r="Z11" s="107"/>
+      <c r="AA11" s="107" t="s">
+        <v>93</v>
+      </c>
+      <c r="AB11" s="107"/>
+      <c r="AC11" s="107"/>
+    </row>
+    <row r="12" spans="2:29" ht="31">
+      <c r="B12" s="102" t="s">
+        <v>97</v>
+      </c>
+      <c r="C12" s="109" t="s">
+        <v>98</v>
+      </c>
+      <c r="D12" s="109" t="s">
+        <v>90</v>
+      </c>
+      <c r="E12" s="108" t="s">
+        <v>95</v>
+      </c>
+      <c r="F12" s="104" t="s">
+        <v>99</v>
+      </c>
+      <c r="G12" s="105"/>
+      <c r="H12" s="105" t="s">
+        <v>93</v>
+      </c>
+      <c r="I12" s="105" t="s">
+        <v>93</v>
+      </c>
+      <c r="J12" s="105"/>
+      <c r="K12" s="105"/>
+      <c r="L12" s="105"/>
+      <c r="M12" s="112"/>
+      <c r="N12" s="113"/>
+      <c r="O12" s="114"/>
+      <c r="P12" s="105"/>
+      <c r="Q12" s="106"/>
+      <c r="R12" s="106"/>
+      <c r="S12" s="106" t="s">
+        <v>93</v>
+      </c>
+      <c r="T12" s="125"/>
+      <c r="U12" s="126"/>
+      <c r="V12" s="127"/>
+      <c r="W12" s="107"/>
+      <c r="X12" s="107"/>
+      <c r="Y12" s="107"/>
+      <c r="Z12" s="107"/>
+      <c r="AA12" s="107"/>
+      <c r="AB12" s="107"/>
+      <c r="AC12" s="107"/>
+    </row>
+    <row r="13" spans="2:29" ht="15.5">
+      <c r="B13" s="102" t="s">
+        <v>100</v>
+      </c>
+      <c r="C13" s="102" t="s">
+        <v>101</v>
+      </c>
+      <c r="D13" s="102" t="s">
+        <v>90</v>
+      </c>
+      <c r="E13" s="103" t="s">
+        <v>95</v>
+      </c>
+      <c r="F13" s="104" t="s">
+        <v>102</v>
+      </c>
+      <c r="G13" s="105" t="s">
+        <v>93</v>
+      </c>
+      <c r="H13" s="105"/>
+      <c r="I13" s="105"/>
+      <c r="J13" s="105"/>
+      <c r="K13" s="105"/>
+      <c r="L13" s="105"/>
+      <c r="M13" s="112"/>
+      <c r="N13" s="113"/>
+      <c r="O13" s="114"/>
+      <c r="P13" s="105"/>
+      <c r="Q13" s="106"/>
+      <c r="R13" s="106"/>
+      <c r="S13" s="106"/>
+      <c r="T13" s="125" t="s">
+        <v>93</v>
+      </c>
+      <c r="U13" s="126"/>
+      <c r="V13" s="127"/>
+      <c r="W13" s="107"/>
+      <c r="X13" s="107"/>
+      <c r="Y13" s="107"/>
+      <c r="Z13" s="107"/>
+      <c r="AA13" s="107"/>
+      <c r="AB13" s="107"/>
+      <c r="AC13" s="107"/>
+    </row>
+    <row r="14" spans="2:29" ht="31">
+      <c r="B14" s="102" t="s">
+        <v>103</v>
+      </c>
+      <c r="C14" s="102" t="s">
+        <v>104</v>
+      </c>
+      <c r="D14" s="102" t="s">
+        <v>90</v>
+      </c>
+      <c r="E14" s="103" t="s">
+        <v>91</v>
+      </c>
+      <c r="F14" s="104" t="s">
+        <v>105</v>
+      </c>
+      <c r="G14" s="105"/>
+      <c r="H14" s="105" t="s">
+        <v>93</v>
+      </c>
+      <c r="I14" s="105"/>
+      <c r="J14" s="105" t="s">
+        <v>93</v>
+      </c>
+      <c r="K14" s="105" t="s">
+        <v>93</v>
+      </c>
+      <c r="L14" s="105" t="s">
+        <v>93</v>
+      </c>
+      <c r="M14" s="112" t="s">
+        <v>93</v>
+      </c>
+      <c r="N14" s="113"/>
+      <c r="O14" s="114"/>
+      <c r="P14" s="105" t="s">
+        <v>93</v>
+      </c>
+      <c r="Q14" s="106" t="s">
+        <v>93</v>
+      </c>
+      <c r="R14" s="106" t="s">
+        <v>93</v>
+      </c>
+      <c r="S14" s="106"/>
+      <c r="T14" s="125"/>
+      <c r="U14" s="126"/>
+      <c r="V14" s="127"/>
+      <c r="W14" s="107"/>
+      <c r="X14" s="107"/>
+      <c r="Y14" s="107" t="s">
+        <v>93</v>
+      </c>
+      <c r="Z14" s="107"/>
+      <c r="AA14" s="107" t="s">
+        <v>93</v>
+      </c>
+      <c r="AB14" s="107"/>
+      <c r="AC14" s="107"/>
+    </row>
+    <row r="15" spans="2:29" ht="15.5">
+      <c r="B15" s="10"/>
+      <c r="C15" s="10"/>
+      <c r="D15" s="11"/>
+      <c r="E15" s="103"/>
+      <c r="F15" s="104"/>
+      <c r="G15" s="12"/>
+      <c r="H15" s="12"/>
+      <c r="I15" s="12"/>
+      <c r="J15" s="12"/>
+      <c r="K15" s="12"/>
+      <c r="L15" s="12"/>
+      <c r="M15" s="12"/>
+      <c r="N15" s="12"/>
+      <c r="O15" s="12"/>
+      <c r="P15" s="105"/>
+      <c r="Q15" s="13"/>
+      <c r="R15" s="13"/>
+      <c r="S15" s="13"/>
+      <c r="T15" s="13"/>
+      <c r="U15" s="13"/>
+      <c r="V15" s="14"/>
+      <c r="W15" s="14"/>
+      <c r="X15" s="14"/>
+      <c r="Y15" s="14"/>
+      <c r="Z15" s="14"/>
+      <c r="AA15" s="14"/>
+      <c r="AB15" s="14"/>
+      <c r="AC15" s="107"/>
+    </row>
+    <row r="16" spans="2:29" ht="15.5">
+      <c r="B16" s="15"/>
     </row>
   </sheetData>
-  <mergeCells count="30">
-    <mergeCell ref="D1:G1"/>
-    <mergeCell ref="B3:F3"/>
+  <mergeCells count="39">
+    <mergeCell ref="M14:O14"/>
+    <mergeCell ref="T8:V9"/>
+    <mergeCell ref="T10:V10"/>
+    <mergeCell ref="T11:V11"/>
+    <mergeCell ref="T12:V12"/>
+    <mergeCell ref="T13:V13"/>
+    <mergeCell ref="T14:V14"/>
+    <mergeCell ref="M8:P8"/>
+    <mergeCell ref="M10:O10"/>
+    <mergeCell ref="M11:O11"/>
+    <mergeCell ref="M12:O12"/>
+    <mergeCell ref="M13:O13"/>
+    <mergeCell ref="C6:D7"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="F7:F9"/>
+    <mergeCell ref="G7:P7"/>
     <mergeCell ref="B6:B9"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="E6:AB6"/>
-    <mergeCell ref="Z8:Z9"/>
-    <mergeCell ref="AA8:AA9"/>
-    <mergeCell ref="U8:U9"/>
-    <mergeCell ref="D8:D9"/>
-    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="E8:E9"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="X8:X9"/>
+    <mergeCell ref="W7:AC7"/>
+    <mergeCell ref="AC8:AC9"/>
+    <mergeCell ref="I8:J8"/>
+    <mergeCell ref="K8:L8"/>
+    <mergeCell ref="Q7:V7"/>
     <mergeCell ref="W8:W9"/>
-    <mergeCell ref="X8:X9"/>
-    <mergeCell ref="Y8:Y9"/>
-    <mergeCell ref="T8:T9"/>
-    <mergeCell ref="V7:AB7"/>
-    <mergeCell ref="AB8:AB9"/>
-    <mergeCell ref="H8:I8"/>
-    <mergeCell ref="J8:K8"/>
-    <mergeCell ref="L8:M8"/>
-    <mergeCell ref="V8:V9"/>
-    <mergeCell ref="P8:P9"/>
     <mergeCell ref="Q8:Q9"/>
     <mergeCell ref="R8:R9"/>
     <mergeCell ref="S8:S9"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="N8:O8"/>
-    <mergeCell ref="E7:E9"/>
-    <mergeCell ref="F7:O7"/>
-    <mergeCell ref="P7:U7"/>
+    <mergeCell ref="F6:AC6"/>
+    <mergeCell ref="AA8:AA9"/>
+    <mergeCell ref="M9:O9"/>
+    <mergeCell ref="Y8:Y9"/>
+    <mergeCell ref="Z8:Z9"/>
+    <mergeCell ref="AB8:AB9"/>
+    <mergeCell ref="D1:G1"/>
+    <mergeCell ref="B3:F3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -2952,75 +3260,75 @@
   <dimension ref="B1:N16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="L16" sqref="L16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.86328125" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5"/>
   <cols>
-    <col min="3" max="3" width="7.19921875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.1796875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.36328125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.06640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.796875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.08984375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.81640625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="10" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="7.19921875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.06640625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="10.06640625" customWidth="1"/>
-    <col min="13" max="13" width="16.06640625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="12.33203125" customWidth="1"/>
+    <col min="10" max="10" width="7.1796875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.08984375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.08984375" customWidth="1"/>
+    <col min="13" max="13" width="16.08984375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="12.36328125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:14">
-      <c r="B1" s="12"/>
-      <c r="D1" s="41" t="s">
-        <v>83</v>
-      </c>
-      <c r="E1" s="42"/>
-      <c r="F1" s="42"/>
-      <c r="G1" s="43"/>
+      <c r="B1" s="9"/>
+      <c r="D1" s="33" t="s">
+        <v>76</v>
+      </c>
+      <c r="E1" s="34"/>
+      <c r="F1" s="34"/>
+      <c r="G1" s="35"/>
     </row>
     <row r="3" spans="2:14">
-      <c r="B3" s="94" t="s">
+      <c r="B3" s="61" t="s">
         <v>29</v>
       </c>
-      <c r="C3" s="94"/>
-      <c r="D3" s="94"/>
-      <c r="E3" s="94"/>
-      <c r="F3" s="94"/>
-      <c r="G3" s="94"/>
-      <c r="H3" s="94"/>
-      <c r="I3" s="94"/>
-      <c r="J3" s="94"/>
-      <c r="K3" s="94"/>
-      <c r="L3" s="94"/>
+      <c r="C3" s="61"/>
+      <c r="D3" s="61"/>
+      <c r="E3" s="61"/>
+      <c r="F3" s="61"/>
+      <c r="G3" s="61"/>
+      <c r="H3" s="61"/>
+      <c r="I3" s="61"/>
+      <c r="J3" s="61"/>
+      <c r="K3" s="61"/>
+      <c r="L3" s="61"/>
     </row>
     <row r="4" spans="2:14">
-      <c r="B4" s="95" t="s">
+      <c r="B4" s="62" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="83" t="s">
+      <c r="C4" s="71" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="101" t="s">
+      <c r="D4" s="73" t="s">
         <v>28</v>
       </c>
-      <c r="E4" s="88" t="s">
+      <c r="E4" s="64" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="99"/>
-      <c r="G4" s="99"/>
-      <c r="H4" s="99"/>
-      <c r="I4" s="99"/>
-      <c r="J4" s="89"/>
-      <c r="K4" s="88" t="s">
+      <c r="F4" s="70"/>
+      <c r="G4" s="70"/>
+      <c r="H4" s="70"/>
+      <c r="I4" s="70"/>
+      <c r="J4" s="65"/>
+      <c r="K4" s="64" t="s">
         <v>3</v>
       </c>
-      <c r="L4" s="89"/>
-    </row>
-    <row r="5" spans="2:14" ht="14.65" thickBot="1">
-      <c r="B5" s="96"/>
-      <c r="C5" s="100"/>
-      <c r="D5" s="102"/>
+      <c r="L4" s="65"/>
+    </row>
+    <row r="5" spans="2:14" ht="15" thickBot="1">
+      <c r="B5" s="63"/>
+      <c r="C5" s="72"/>
+      <c r="D5" s="74"/>
       <c r="E5" s="2" t="s">
         <v>1</v>
       </c>
@@ -3033,10 +3341,10 @@
       <c r="H5" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="I5" s="90" t="s">
+      <c r="I5" s="66" t="s">
         <v>1</v>
       </c>
-      <c r="J5" s="91"/>
+      <c r="J5" s="67"/>
       <c r="K5" s="2" t="s">
         <v>4</v>
       </c>
@@ -3044,164 +3352,134 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="2:14" ht="14.65" thickTop="1">
-      <c r="B6" s="23">
+    <row r="6" spans="2:14" ht="15" thickTop="1">
+      <c r="B6" s="133">
         <v>9</v>
       </c>
-      <c r="C6" s="97" t="s">
-        <v>45</v>
-      </c>
-      <c r="D6" s="4" t="s">
+      <c r="C6" s="68" t="s">
+        <v>44</v>
+      </c>
+      <c r="D6" s="130" t="s">
+        <v>50</v>
+      </c>
+      <c r="E6" s="135" t="s">
+        <v>89</v>
+      </c>
+      <c r="F6" s="136"/>
+      <c r="G6" s="136"/>
+      <c r="H6" s="137"/>
+      <c r="I6" s="75" t="s">
+        <v>90</v>
+      </c>
+      <c r="J6" s="76"/>
+      <c r="K6" s="134" t="s">
+        <v>106</v>
+      </c>
+      <c r="L6" s="133" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="7" spans="2:14">
+      <c r="B7" s="133">
+        <v>10</v>
+      </c>
+      <c r="C7" s="68"/>
+      <c r="D7" s="130" t="s">
         <v>51</v>
       </c>
-      <c r="E6" s="24" t="s">
-        <v>1</v>
-      </c>
-      <c r="F6" s="24" t="s">
-        <v>1</v>
-      </c>
-      <c r="G6" s="24" t="s">
-        <v>6</v>
-      </c>
-      <c r="H6" s="24" t="s">
-        <v>1</v>
-      </c>
-      <c r="I6" s="86" t="s">
-        <v>1</v>
-      </c>
-      <c r="J6" s="87"/>
-      <c r="K6" s="24" t="s">
-        <v>1</v>
-      </c>
-      <c r="L6" s="23" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="2:14">
-      <c r="B7" s="23">
-        <v>10</v>
-      </c>
-      <c r="C7" s="97"/>
-      <c r="D7" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="E7" s="23">
-        <v>5</v>
-      </c>
-      <c r="F7" s="23">
-        <v>6</v>
-      </c>
-      <c r="G7" s="23" t="s">
-        <v>6</v>
-      </c>
-      <c r="H7" s="23" t="s">
-        <v>1</v>
-      </c>
-      <c r="I7" s="88" t="s">
-        <v>1</v>
-      </c>
-      <c r="J7" s="89"/>
-      <c r="K7" s="23" t="s">
-        <v>1</v>
-      </c>
-      <c r="L7" s="23" t="s">
-        <v>1</v>
+      <c r="E7" s="64" t="s">
+        <v>89</v>
+      </c>
+      <c r="F7" s="70"/>
+      <c r="G7" s="70"/>
+      <c r="H7" s="65"/>
+      <c r="I7" s="64" t="s">
+        <v>94</v>
+      </c>
+      <c r="J7" s="65"/>
+      <c r="K7" s="133" t="s">
+        <v>106</v>
+      </c>
+      <c r="L7" s="133" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="8" spans="2:14">
-      <c r="B8" s="23">
+      <c r="B8" s="133">
         <v>11</v>
       </c>
-      <c r="C8" s="97"/>
-      <c r="D8" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="E8" s="23" t="s">
-        <v>1</v>
-      </c>
-      <c r="F8" s="23" t="s">
-        <v>1</v>
-      </c>
-      <c r="G8" s="23" t="s">
-        <v>6</v>
-      </c>
-      <c r="H8" s="23" t="s">
-        <v>1</v>
-      </c>
-      <c r="I8" s="88" t="s">
-        <v>1</v>
-      </c>
-      <c r="J8" s="89"/>
-      <c r="K8" s="23" t="s">
-        <v>1</v>
-      </c>
-      <c r="L8" s="23" t="s">
-        <v>1</v>
+      <c r="C8" s="68"/>
+      <c r="D8" s="132" t="s">
+        <v>97</v>
+      </c>
+      <c r="E8" s="64" t="s">
+        <v>98</v>
+      </c>
+      <c r="F8" s="70"/>
+      <c r="G8" s="70"/>
+      <c r="H8" s="65"/>
+      <c r="I8" s="64" t="s">
+        <v>90</v>
+      </c>
+      <c r="J8" s="65"/>
+      <c r="K8" s="133" t="s">
+        <v>107</v>
+      </c>
+      <c r="L8" s="133" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="9" spans="2:14">
-      <c r="B9" s="23">
+      <c r="B9" s="133">
         <v>12</v>
       </c>
-      <c r="C9" s="97"/>
-      <c r="D9" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="E9" s="23" t="s">
-        <v>1</v>
-      </c>
-      <c r="F9" s="23" t="s">
-        <v>1</v>
-      </c>
-      <c r="G9" s="23" t="s">
-        <v>6</v>
-      </c>
-      <c r="H9" s="23" t="s">
-        <v>1</v>
-      </c>
-      <c r="I9" s="88" t="s">
-        <v>1</v>
-      </c>
-      <c r="J9" s="89"/>
-      <c r="K9" s="23" t="s">
-        <v>1</v>
-      </c>
-      <c r="L9" s="23" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="2:14" ht="14.65" thickBot="1">
-      <c r="B10" s="2">
+      <c r="C9" s="68"/>
+      <c r="D9" s="132" t="s">
+        <v>100</v>
+      </c>
+      <c r="E9" s="64" t="s">
+        <v>101</v>
+      </c>
+      <c r="F9" s="70"/>
+      <c r="G9" s="70"/>
+      <c r="H9" s="65"/>
+      <c r="I9" s="64" t="s">
+        <v>90</v>
+      </c>
+      <c r="J9" s="65"/>
+      <c r="K9" s="133" t="s">
+        <v>107</v>
+      </c>
+      <c r="L9" s="133" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="10" spans="2:14" ht="15" thickBot="1">
+      <c r="B10" s="129">
         <v>13</v>
       </c>
-      <c r="C10" s="98"/>
-      <c r="D10" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="G10" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="H10" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="I10" s="90" t="s">
-        <v>1</v>
-      </c>
-      <c r="J10" s="91"/>
-      <c r="K10" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="L10" s="2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="2:14" ht="14.65" thickTop="1">
+      <c r="C10" s="69"/>
+      <c r="D10" s="131" t="s">
+        <v>103</v>
+      </c>
+      <c r="E10" s="66" t="s">
+        <v>104</v>
+      </c>
+      <c r="F10" s="128"/>
+      <c r="G10" s="128"/>
+      <c r="H10" s="67"/>
+      <c r="I10" s="66" t="s">
+        <v>90</v>
+      </c>
+      <c r="J10" s="67"/>
+      <c r="K10" s="129" t="s">
+        <v>106</v>
+      </c>
+      <c r="L10" s="129" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="11" spans="2:14" ht="15" thickTop="1">
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
       <c r="D11" s="3"/>
@@ -3214,162 +3492,170 @@
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
     </row>
-    <row r="12" spans="2:14" ht="14.65" thickBot="1">
+    <row r="12" spans="2:14" ht="15" thickBot="1">
       <c r="B12" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="K12" s="25"/>
-    </row>
-    <row r="13" spans="2:14" ht="15" thickTop="1" thickBot="1">
-      <c r="B13" s="103" t="s">
+      <c r="K12" s="16"/>
+    </row>
+    <row r="13" spans="2:14" ht="15.5" thickTop="1" thickBot="1">
+      <c r="B13" s="79" t="s">
+        <v>63</v>
+      </c>
+      <c r="C13" s="80"/>
+      <c r="D13" s="80"/>
+      <c r="E13" s="80"/>
+      <c r="F13" s="98" t="s">
+        <v>64</v>
+      </c>
+      <c r="G13" s="99"/>
+      <c r="H13" s="79" t="s">
+        <v>65</v>
+      </c>
+      <c r="I13" s="80"/>
+      <c r="J13" s="80"/>
+      <c r="K13" s="80"/>
+      <c r="L13" s="81"/>
+      <c r="M13" s="86" t="s">
+        <v>66</v>
+      </c>
+      <c r="N13" s="87"/>
+    </row>
+    <row r="14" spans="2:14" ht="15" thickTop="1">
+      <c r="B14" s="85" t="s">
+        <v>40</v>
+      </c>
+      <c r="C14" s="77" t="s">
+        <v>41</v>
+      </c>
+      <c r="D14" s="77" t="s">
+        <v>42</v>
+      </c>
+      <c r="E14" s="89" t="s">
+        <v>67</v>
+      </c>
+      <c r="F14" s="91" t="s">
+        <v>68</v>
+      </c>
+      <c r="G14" s="93" t="s">
+        <v>69</v>
+      </c>
+      <c r="H14" s="94" t="s">
         <v>70</v>
       </c>
-      <c r="C13" s="104"/>
-      <c r="D13" s="104"/>
-      <c r="E13" s="104"/>
-      <c r="F13" s="105" t="s">
+      <c r="I14" s="77" t="s">
+        <v>40</v>
+      </c>
+      <c r="J14" s="77" t="s">
+        <v>41</v>
+      </c>
+      <c r="K14" s="96" t="s">
+        <v>43</v>
+      </c>
+      <c r="L14" s="82" t="s">
         <v>71</v>
       </c>
-      <c r="G13" s="106"/>
-      <c r="H13" s="103" t="s">
+      <c r="M14" s="84" t="s">
         <v>72</v>
       </c>
-      <c r="I13" s="104"/>
-      <c r="J13" s="104"/>
-      <c r="K13" s="104"/>
-      <c r="L13" s="107"/>
-      <c r="M13" s="73" t="s">
+      <c r="N14" s="71" t="s">
         <v>73</v>
       </c>
-      <c r="N13" s="74"/>
-    </row>
-    <row r="14" spans="2:14" ht="14.65" thickTop="1">
-      <c r="B14" s="72" t="s">
-        <v>41</v>
-      </c>
-      <c r="C14" s="76" t="s">
-        <v>42</v>
-      </c>
-      <c r="D14" s="76" t="s">
-        <v>43</v>
-      </c>
-      <c r="E14" s="78" t="s">
+    </row>
+    <row r="15" spans="2:14">
+      <c r="B15" s="88"/>
+      <c r="C15" s="78"/>
+      <c r="D15" s="78"/>
+      <c r="E15" s="90"/>
+      <c r="F15" s="92"/>
+      <c r="G15" s="93"/>
+      <c r="H15" s="95"/>
+      <c r="I15" s="78"/>
+      <c r="J15" s="78"/>
+      <c r="K15" s="97"/>
+      <c r="L15" s="83"/>
+      <c r="M15" s="85"/>
+      <c r="N15" s="91"/>
+    </row>
+    <row r="16" spans="2:14">
+      <c r="B16" s="20">
+        <v>5</v>
+      </c>
+      <c r="C16" s="17">
+        <v>5</v>
+      </c>
+      <c r="D16" s="17">
+        <v>0</v>
+      </c>
+      <c r="E16" s="18">
+        <v>100</v>
+      </c>
+      <c r="F16" s="19"/>
+      <c r="G16" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="F14" s="80" t="s">
-        <v>75</v>
-      </c>
-      <c r="G14" s="82" t="s">
-        <v>76</v>
-      </c>
-      <c r="H14" s="84" t="s">
-        <v>77</v>
-      </c>
-      <c r="I14" s="76" t="s">
-        <v>41</v>
-      </c>
-      <c r="J14" s="76" t="s">
-        <v>42</v>
-      </c>
-      <c r="K14" s="92" t="s">
-        <v>44</v>
-      </c>
-      <c r="L14" s="69" t="s">
-        <v>78</v>
-      </c>
-      <c r="M14" s="71" t="s">
-        <v>79</v>
-      </c>
-      <c r="N14" s="83" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="15" spans="2:14">
-      <c r="B15" s="75"/>
-      <c r="C15" s="77"/>
-      <c r="D15" s="77"/>
-      <c r="E15" s="79"/>
-      <c r="F15" s="81"/>
-      <c r="G15" s="82"/>
-      <c r="H15" s="85"/>
-      <c r="I15" s="77"/>
-      <c r="J15" s="77"/>
-      <c r="K15" s="93"/>
-      <c r="L15" s="70"/>
-      <c r="M15" s="72"/>
-      <c r="N15" s="80"/>
-    </row>
-    <row r="16" spans="2:14">
-      <c r="B16" s="29">
-        <f>SUM(C16:D16)</f>
-        <v>0</v>
-      </c>
-      <c r="C16" s="26">
-        <v>0</v>
-      </c>
-      <c r="D16" s="26">
-        <v>0</v>
-      </c>
-      <c r="E16" s="27"/>
-      <c r="F16" s="28"/>
-      <c r="G16" s="8" t="s">
-        <v>81</v>
-      </c>
-      <c r="H16" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="I16" s="29">
+      <c r="H16" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="I16" s="20">
         <f>SUM(J16:K16)</f>
         <v>0</v>
       </c>
-      <c r="J16" s="26">
+      <c r="J16" s="17">
         <v>0</v>
       </c>
-      <c r="K16" s="30">
+      <c r="K16" s="21">
         <v>0</v>
       </c>
-      <c r="L16" s="31"/>
-      <c r="M16" s="6" t="s">
-        <v>81</v>
-      </c>
-      <c r="N16" s="32">
+      <c r="L16" s="22">
+        <v>100</v>
+      </c>
+      <c r="M16" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="N16" s="23">
         <f>C16</f>
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="31">
-    <mergeCell ref="D1:G1"/>
-    <mergeCell ref="B3:L3"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="I9:J9"/>
-    <mergeCell ref="I5:J5"/>
-    <mergeCell ref="K4:L4"/>
-    <mergeCell ref="C6:C10"/>
-    <mergeCell ref="E4:J4"/>
-    <mergeCell ref="C4:C5"/>
-    <mergeCell ref="D4:D5"/>
-    <mergeCell ref="I6:J6"/>
+  <mergeCells count="36">
     <mergeCell ref="I7:J7"/>
     <mergeCell ref="I10:J10"/>
     <mergeCell ref="I8:J8"/>
+    <mergeCell ref="E7:H7"/>
+    <mergeCell ref="B13:E13"/>
+    <mergeCell ref="F13:G13"/>
+    <mergeCell ref="E8:H8"/>
+    <mergeCell ref="E9:H9"/>
+    <mergeCell ref="E10:H10"/>
+    <mergeCell ref="C6:C10"/>
+    <mergeCell ref="E6:H6"/>
+    <mergeCell ref="G14:G15"/>
+    <mergeCell ref="N14:N15"/>
+    <mergeCell ref="H14:H15"/>
+    <mergeCell ref="I14:I15"/>
+    <mergeCell ref="K14:K15"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="E14:E15"/>
+    <mergeCell ref="F14:F15"/>
     <mergeCell ref="J14:J15"/>
     <mergeCell ref="H13:L13"/>
     <mergeCell ref="L14:L15"/>
     <mergeCell ref="M14:M15"/>
     <mergeCell ref="M13:N13"/>
-    <mergeCell ref="B14:B15"/>
-    <mergeCell ref="C14:C15"/>
-    <mergeCell ref="D14:D15"/>
-    <mergeCell ref="E14:E15"/>
-    <mergeCell ref="F14:F15"/>
-    <mergeCell ref="G14:G15"/>
-    <mergeCell ref="N14:N15"/>
-    <mergeCell ref="H14:H15"/>
-    <mergeCell ref="I14:I15"/>
-    <mergeCell ref="K14:K15"/>
-    <mergeCell ref="B13:E13"/>
-    <mergeCell ref="F13:G13"/>
+    <mergeCell ref="D1:G1"/>
+    <mergeCell ref="B3:L3"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="I5:J5"/>
+    <mergeCell ref="K4:L4"/>
+    <mergeCell ref="E4:J4"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="D4:D5"/>
+    <mergeCell ref="I9:J9"/>
+    <mergeCell ref="I6:J6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -3377,21 +3663,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100F5F472198D7887469049920058585067" ma:contentTypeVersion="4" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="5e76e8f6ca957e849a493f1baa4f4bb7">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="c46c0853-0d59-45c6-b517-3e25eac8cdf1" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="6ddeb00cc2097713d6f56fe4f26be38f" ns2:_="">
     <xsd:import namespace="c46c0853-0d59-45c6-b517-3e25eac8cdf1"/>
@@ -3535,24 +3806,22 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FC4FB184-C14D-4C2C-BD91-7F8240B2478B}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CFB6F214-3FD3-47D7-BFB6-77D735E8F784}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9E53DB3A-2750-466D-B803-7A1FAB16D24B}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -3568,4 +3837,21 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CFB6F214-3FD3-47D7-BFB6-77D735E8F784}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FC4FB184-C14D-4C2C-BD91-7F8240B2478B}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>